--- a/forms/invoice/invoice_print_attach_plt_mark_xls.xlsx
+++ b/forms/invoice/invoice_print_attach_plt_mark_xls.xlsx
@@ -15,9 +15,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>ATTACHMENT OF SI NO. FI/20-170</t>
+    <t>ATTACHMENT OF SI NO. 0015585</t>
+  </si>
+  <si>
+    <t>Vinh An Thinh Trading Co., Ltd 
+P/NO. 1 - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinh An Thinh Trading Co., Ltd 
+P/NO. 1 </t>
+  </si>
+  <si>
+    <t>Vinh An Thinh Trading Co., Ltd 
+P/NO. 1 - 2</t>
+  </si>
+  <si>
+    <t>Vinh An Thinh Trading Co., Ltd 
+P/NO. 1 - 12</t>
   </si>
 </sst>
 </file>
@@ -415,10 +431,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,45 +466,133 @@
       <c r="M4"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A6:C12"/>
+    <mergeCell ref="F6:H12"/>
+    <mergeCell ref="K6:M12"/>
+    <mergeCell ref="A14:C20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forms/invoice/invoice_print_attach_plt_mark_xls.xlsx
+++ b/forms/invoice/invoice_print_attach_plt_mark_xls.xlsx
@@ -15,25 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
-    <t>ATTACHMENT OF SI NO. 0015585</t>
+    <t>ATTACHMENT OF SI NO. FI/20-189</t>
   </si>
   <si>
-    <t>Vinh An Thinh Trading Co., Ltd 
-P/NO. 1 - 5</t>
+    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(4B)FP-W-FI  &amp;lt;BR&amp;gt;P/NO. 1  &amp;lt;BR&amp;gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Vinh An Thinh Trading Co., Ltd 
-P/NO. 1 </t>
+    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(4B)FU-W-FI  &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
   </si>
   <si>
-    <t>Vinh An Thinh Trading Co., Ltd 
-P/NO. 1 - 2</t>
+    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA &amp;lt;BR&amp;gt; RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(2B)FU-W-FI  &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
   </si>
   <si>
-    <t>Vinh An Thinh Trading Co., Ltd 
-P/NO. 1 - 12</t>
+    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(4B)FH-W-FI &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
+  </si>
+  <si>
+    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(2B)FP-W-FI  &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
+  </si>
+  <si>
+    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(2B)FH-W-FI  &amp;lt;BR&amp;gt;P/NO. 1  &amp;lt;BR&amp;gt;</t>
   </si>
 </sst>
 </file>
@@ -434,7 +436,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -554,36 +556,82 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -593,6 +641,8 @@
     <mergeCell ref="F6:H12"/>
     <mergeCell ref="K6:M12"/>
     <mergeCell ref="A14:C20"/>
+    <mergeCell ref="F14:H20"/>
+    <mergeCell ref="K14:M20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forms/invoice/invoice_print_attach_plt_mark_xls.xlsx
+++ b/forms/invoice/invoice_print_attach_plt_mark_xls.xlsx
@@ -15,27 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>ATTACHMENT OF SI NO. FI/20-189</t>
+    <t>ATTACHMENT OF SI NO. 120500002388</t>
   </si>
   <si>
-    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(4B)FP-W-FI  &amp;lt;BR&amp;gt;P/NO. 1  &amp;lt;BR&amp;gt;</t>
+    <t>VIETLIEN &lt;BR/&gt;
+HCMC &lt;BR/&gt;
+LR6(2B)FU-W-FI&lt;BR/&gt;
+P/NO. 1-2 &lt;BR/&gt;
+MADE IN INDONESIA&lt;BR/&gt;
+P/NO. 1 - 2</t>
   </si>
   <si>
-    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(4B)FU-W-FI  &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
+    <t>VIETLIEN &lt;BR/&gt;
+HCMC &lt;BR/&gt;
+LR03(4B)FU-W-FI &lt;BR/&gt;
+P/NO. 1-6 &lt;BR/&gt;
+MADE IN INDONESIA&lt;BR/&gt;
+P/NO. 1 - 6</t>
   </si>
   <si>
-    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA &amp;lt;BR&amp;gt; RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(2B)FU-W-FI  &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
-  </si>
-  <si>
-    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(4B)FH-W-FI &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
-  </si>
-  <si>
-    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(2B)FP-W-FI  &amp;lt;BR&amp;gt;P/NO. 1 &amp;lt;BR&amp;gt;</t>
-  </si>
-  <si>
-    <t>RICHARD PIERIS DISTRIBUTORS LTD  &amp;lt;BR&amp;gt;COLOMBO, SRI LANKA  &amp;lt;BR&amp;gt;RPC/110500002131  &amp;lt;BR&amp;gt;FRPD387  &amp;lt;BR&amp;gt;LR6(2B)FH-W-FI  &amp;lt;BR&amp;gt;P/NO. 1  &amp;lt;BR&amp;gt;</t>
+    <t>VIETLIEN &lt;BR/&gt;
+HCMC&lt;BR/&gt;
+LR6(4B)FU-W-FI &lt;BR/&gt;
+P/NO. 1-7 &lt;BR/&gt;
+MADE IN INDONESIA&lt;BR/&gt;
+P/NO. 1 - 7</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,89 +556,6 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -640,9 +563,6 @@
     <mergeCell ref="A6:C12"/>
     <mergeCell ref="F6:H12"/>
     <mergeCell ref="K6:M12"/>
-    <mergeCell ref="A14:C20"/>
-    <mergeCell ref="F14:H20"/>
-    <mergeCell ref="K14:M20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
